--- a/analysen/hochburgen_schwachstellen_gemeinden.xlsx
+++ b/analysen/hochburgen_schwachstellen_gemeinden.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t xml:space="preserve">ags</t>
   </si>
@@ -249,18 +249,18 @@
     <t xml:space="preserve">Cornberg</t>
   </si>
   <si>
+    <t xml:space="preserve">534016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neustadt (Hessen)</t>
+  </si>
+  <si>
     <t xml:space="preserve">435004</t>
   </si>
   <si>
     <t xml:space="preserve">Birstein</t>
   </si>
   <si>
-    <t xml:space="preserve">534016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Neustadt (Hessen)</t>
-  </si>
-  <si>
     <t xml:space="preserve">434006</t>
   </si>
   <si>
@@ -294,18 +294,18 @@
     <t xml:space="preserve">Twistetal</t>
   </si>
   <si>
+    <t xml:space="preserve">632014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neuenstein</t>
+  </si>
+  <si>
     <t xml:space="preserve">534013</t>
   </si>
   <si>
     <t xml:space="preserve">Lohra</t>
   </si>
   <si>
-    <t xml:space="preserve">632014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Neuenstein</t>
-  </si>
-  <si>
     <t xml:space="preserve">636009</t>
   </si>
   <si>
@@ -370,12 +370,6 @@
   </si>
   <si>
     <t xml:space="preserve">Waldkappel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">634001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Borken (Hessen)</t>
   </si>
 </sst>
 </file>
@@ -747,10 +741,10 @@
         <v>9</v>
       </c>
       <c r="F2" t="n">
-        <v>53.6687631027254</v>
+        <v>53.5564853556485</v>
       </c>
       <c r="G2" t="n">
-        <v>1.56298445434143</v>
+        <v>1.45070670726459</v>
       </c>
     </row>
     <row r="3">
@@ -770,10 +764,10 @@
         <v>9</v>
       </c>
       <c r="F3" t="n">
-        <v>53.031465848043</v>
+        <v>52.9704867765427</v>
       </c>
       <c r="G3" t="n">
-        <v>9.19894981635682</v>
+        <v>9.13797074485658</v>
       </c>
     </row>
     <row r="4">
@@ -793,10 +787,10 @@
         <v>9</v>
       </c>
       <c r="F4" t="n">
-        <v>52.3421588594705</v>
+        <v>52.271186440678</v>
       </c>
       <c r="G4" t="n">
-        <v>8.8890138017041</v>
+        <v>8.8180413829116</v>
       </c>
     </row>
     <row r="5">
@@ -816,10 +810,10 @@
         <v>9</v>
       </c>
       <c r="F5" t="n">
-        <v>51.8229166666667</v>
+        <v>51.7017407118732</v>
       </c>
       <c r="G5" t="n">
-        <v>8.77602048884069</v>
+        <v>8.65484453404724</v>
       </c>
     </row>
     <row r="6">
@@ -839,10 +833,10 @@
         <v>9</v>
       </c>
       <c r="F6" t="n">
-        <v>51.251078515962</v>
+        <v>51.118760757315</v>
       </c>
       <c r="G6" t="n">
-        <v>5.96962156231965</v>
+        <v>5.83730380367259</v>
       </c>
     </row>
     <row r="7">
@@ -885,10 +879,10 @@
         <v>9</v>
       </c>
       <c r="F8" t="n">
-        <v>25.2103281877669</v>
+        <v>25.0943064078061</v>
       </c>
       <c r="G8" t="n">
-        <v>5.78118388158062</v>
+        <v>5.66516210161982</v>
       </c>
     </row>
     <row r="9">
@@ -908,10 +902,10 @@
         <v>9</v>
       </c>
       <c r="F9" t="n">
-        <v>24.5757089944165</v>
+        <v>24.5384042171501</v>
       </c>
       <c r="G9" t="n">
-        <v>3.72347603000396</v>
+        <v>3.68617125273758</v>
       </c>
     </row>
     <row r="10">
@@ -931,10 +925,10 @@
         <v>9</v>
       </c>
       <c r="F10" t="n">
-        <v>24.4372990353698</v>
+        <v>24.2553191489362</v>
       </c>
       <c r="G10" t="n">
-        <v>5.68729903536978</v>
+        <v>5.50531914893617</v>
       </c>
     </row>
     <row r="11">
@@ -954,10 +948,10 @@
         <v>9</v>
       </c>
       <c r="F11" t="n">
-        <v>22.8946984080619</v>
+        <v>22.8369972174876</v>
       </c>
       <c r="G11" t="n">
-        <v>3.79716339864419</v>
+        <v>3.73946220806985</v>
       </c>
     </row>
   </sheetData>
@@ -1384,10 +1378,10 @@
         <v>28</v>
       </c>
       <c r="F2" t="n">
-        <v>27.3784139038995</v>
+        <v>27.3094124674038</v>
       </c>
       <c r="G2" t="n">
-        <v>-3.07363752513987</v>
+        <v>-3.14263896163558</v>
       </c>
     </row>
     <row r="3">
@@ -1407,10 +1401,10 @@
         <v>28</v>
       </c>
       <c r="F3" t="n">
-        <v>25.7698048537785</v>
+        <v>25.7306874948252</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.74583756088153</v>
+        <v>-0.784954919834906</v>
       </c>
     </row>
     <row r="4">
@@ -1430,10 +1424,10 @@
         <v>28</v>
       </c>
       <c r="F4" t="n">
-        <v>23.7558925204274</v>
+        <v>23.6979881026091</v>
       </c>
       <c r="G4" t="n">
-        <v>-2.25798704751387</v>
+        <v>-2.31589146533215</v>
       </c>
     </row>
     <row r="5">
@@ -1453,10 +1447,10 @@
         <v>28</v>
       </c>
       <c r="F5" t="n">
-        <v>23.3631977946244</v>
+        <v>23.2803021632139</v>
       </c>
       <c r="G5" t="n">
-        <v>-2.96326384782238</v>
+        <v>-3.04615947923286</v>
       </c>
     </row>
     <row r="6">
@@ -1476,10 +1470,10 @@
         <v>28</v>
       </c>
       <c r="F6" t="n">
-        <v>22.6968064134578</v>
+        <v>22.6640419947507</v>
       </c>
       <c r="G6" t="n">
-        <v>-3.79140263689279</v>
+        <v>-3.82416705559989</v>
       </c>
     </row>
     <row r="7">
@@ -1499,10 +1493,10 @@
         <v>28</v>
       </c>
       <c r="F7" t="n">
-        <v>4.47677672076105</v>
+        <v>4.46179587283882</v>
       </c>
       <c r="G7" t="n">
-        <v>-6.21504717861002</v>
+        <v>-6.23002802653225</v>
       </c>
     </row>
     <row r="8">
@@ -1522,10 +1516,10 @@
         <v>28</v>
       </c>
       <c r="F8" t="n">
-        <v>4.41834451901566</v>
+        <v>4.38645197112715</v>
       </c>
       <c r="G8" t="n">
-        <v>-3.62423383698671</v>
+        <v>-3.65612638487521</v>
       </c>
     </row>
     <row r="9">
@@ -1545,10 +1539,10 @@
         <v>28</v>
       </c>
       <c r="F9" t="n">
-        <v>4.1553748870822</v>
+        <v>4.15725259828287</v>
       </c>
       <c r="G9" t="n">
-        <v>-3.01802178750212</v>
+        <v>-3.01614407630145</v>
       </c>
     </row>
     <row r="10">
@@ -1568,10 +1562,10 @@
         <v>28</v>
       </c>
       <c r="F10" t="n">
-        <v>3.53862776877364</v>
+        <v>3.53290183387271</v>
       </c>
       <c r="G10" t="n">
-        <v>-5.43677098764702</v>
+        <v>-5.44249692254795</v>
       </c>
     </row>
     <row r="11">
@@ -1591,10 +1585,10 @@
         <v>28</v>
       </c>
       <c r="F11" t="n">
-        <v>3.52112676056338</v>
+        <v>3.52733686067019</v>
       </c>
       <c r="G11" t="n">
-        <v>-1.94026683642344</v>
+        <v>-1.93405673631662</v>
       </c>
     </row>
   </sheetData>
@@ -2021,10 +2015,10 @@
         <v>47</v>
       </c>
       <c r="F2" t="n">
-        <v>30.6627822286963</v>
+        <v>30.6963179001094</v>
       </c>
       <c r="G2" t="n">
-        <v>-7.73068271344122</v>
+        <v>-7.69714704202813</v>
       </c>
     </row>
     <row r="3">
@@ -2044,10 +2038,10 @@
         <v>47</v>
       </c>
       <c r="F3" t="n">
-        <v>28.1933256616801</v>
+        <v>28.2041442824252</v>
       </c>
       <c r="G3" t="n">
-        <v>-6.58605883961765</v>
+        <v>-6.57524021887257</v>
       </c>
     </row>
     <row r="4">
@@ -2067,10 +2061,10 @@
         <v>47</v>
       </c>
       <c r="F4" t="n">
-        <v>26.2777242044359</v>
+        <v>26.3412276462059</v>
       </c>
       <c r="G4" t="n">
-        <v>-6.34878181966052</v>
+        <v>-6.28527837789049</v>
       </c>
     </row>
     <row r="5">
@@ -2090,10 +2084,10 @@
         <v>47</v>
       </c>
       <c r="F5" t="n">
-        <v>26.1810313739632</v>
+        <v>26.228323699422</v>
       </c>
       <c r="G5" t="n">
-        <v>-6.77599703098944</v>
+        <v>-6.7287047055307</v>
       </c>
     </row>
     <row r="6">
@@ -2113,10 +2107,10 @@
         <v>47</v>
       </c>
       <c r="F6" t="n">
-        <v>26.0898282694848</v>
+        <v>26.158940397351</v>
       </c>
       <c r="G6" t="n">
-        <v>-12.0238668209545</v>
+        <v>-11.9547546930883</v>
       </c>
     </row>
     <row r="7">
@@ -2136,10 +2130,10 @@
         <v>47</v>
       </c>
       <c r="F7" t="n">
-        <v>5.33384497313891</v>
+        <v>5.32771176696052</v>
       </c>
       <c r="G7" t="n">
-        <v>-3.64389927431488</v>
+        <v>-3.65003248049327</v>
       </c>
     </row>
     <row r="8">
@@ -2159,10 +2153,10 @@
         <v>47</v>
       </c>
       <c r="F8" t="n">
-        <v>5.09344082081348</v>
+        <v>5.0692924872356</v>
       </c>
       <c r="G8" t="n">
-        <v>-3.90146085435039</v>
+        <v>-3.92560918792828</v>
       </c>
     </row>
     <row r="9">
@@ -2182,10 +2176,10 @@
         <v>47</v>
       </c>
       <c r="F9" t="n">
-        <v>5.05293551491819</v>
+        <v>5.05536831969186</v>
       </c>
       <c r="G9" t="n">
-        <v>-5.12906153377832</v>
+        <v>-5.12662872900464</v>
       </c>
     </row>
     <row r="10">
@@ -2205,10 +2199,10 @@
         <v>47</v>
       </c>
       <c r="F10" t="n">
-        <v>4.88522660388464</v>
+        <v>4.87089201877934</v>
       </c>
       <c r="G10" t="n">
-        <v>-4.42123456979645</v>
+        <v>-4.43556915490175</v>
       </c>
     </row>
     <row r="11">
@@ -2228,10 +2222,10 @@
         <v>47</v>
       </c>
       <c r="F11" t="n">
-        <v>4.82180293501048</v>
+        <v>4.81171548117155</v>
       </c>
       <c r="G11" t="n">
-        <v>-3.69925485147336</v>
+        <v>-3.70934230531229</v>
       </c>
     </row>
   </sheetData>
@@ -2288,10 +2282,10 @@
         <v>64</v>
       </c>
       <c r="F2" t="n">
-        <v>32.8210313447927</v>
+        <v>32.6690821256039</v>
       </c>
       <c r="G2" t="n">
-        <v>9.72667617379973</v>
+        <v>9.57472695461087</v>
       </c>
     </row>
     <row r="3">
@@ -2311,10 +2305,10 @@
         <v>64</v>
       </c>
       <c r="F3" t="n">
-        <v>32.3959505061867</v>
+        <v>32.3232323232323</v>
       </c>
       <c r="G3" t="n">
-        <v>10.148287846389</v>
+        <v>10.0755696634346</v>
       </c>
     </row>
     <row r="4">
@@ -2334,10 +2328,10 @@
         <v>64</v>
       </c>
       <c r="F4" t="n">
-        <v>31.7391304347826</v>
+        <v>31.7851959361393</v>
       </c>
       <c r="G4" t="n">
-        <v>9.4702228717574</v>
+        <v>9.51628837311412</v>
       </c>
     </row>
     <row r="5">
@@ -2348,19 +2342,19 @@
         <v>70</v>
       </c>
       <c r="C5" t="n">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="D5" t="n">
-        <v>70.5</v>
+        <v>64.6</v>
       </c>
       <c r="E5" t="s">
         <v>64</v>
       </c>
       <c r="F5" t="n">
-        <v>31.4508861519976</v>
+        <v>31.3597065758449</v>
       </c>
       <c r="G5" t="n">
-        <v>12.2549973974631</v>
+        <v>10.9849993158917</v>
       </c>
     </row>
     <row r="6">
@@ -2371,19 +2365,19 @@
         <v>72</v>
       </c>
       <c r="C6" t="n">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="D6" t="n">
-        <v>64.6</v>
+        <v>70.5</v>
       </c>
       <c r="E6" t="s">
         <v>64</v>
       </c>
       <c r="F6" t="n">
-        <v>31.4008394543547</v>
+        <v>31.216457960644</v>
       </c>
       <c r="G6" t="n">
-        <v>11.0261321944015</v>
+        <v>12.0205692061095</v>
       </c>
     </row>
     <row r="7">
@@ -2403,10 +2397,10 @@
         <v>64</v>
       </c>
       <c r="F7" t="n">
-        <v>10.8792171754053</v>
+        <v>10.8517984353831</v>
       </c>
       <c r="G7" t="n">
-        <v>1.90916285279999</v>
+        <v>1.88174411277777</v>
       </c>
     </row>
     <row r="8">
@@ -2426,10 +2420,10 @@
         <v>64</v>
       </c>
       <c r="F8" t="n">
-        <v>10.6978577999737</v>
+        <v>10.6824146981627</v>
       </c>
       <c r="G8" t="n">
-        <v>2.06815735382968</v>
+        <v>2.05271425201869</v>
       </c>
     </row>
     <row r="9">
@@ -2449,10 +2443,10 @@
         <v>64</v>
       </c>
       <c r="F9" t="n">
-        <v>10.679719657359</v>
+        <v>10.6714095153401</v>
       </c>
       <c r="G9" t="n">
-        <v>1.79631435199194</v>
+        <v>1.78800420997309</v>
       </c>
     </row>
     <row r="10">
@@ -2472,10 +2466,10 @@
         <v>64</v>
       </c>
       <c r="F10" t="n">
-        <v>10.357872407291</v>
+        <v>10.3326253419128</v>
       </c>
       <c r="G10" t="n">
-        <v>1.36202278052467</v>
+        <v>1.33677571514648</v>
       </c>
     </row>
     <row r="11">
@@ -2495,10 +2489,10 @@
         <v>64</v>
       </c>
       <c r="F11" t="n">
-        <v>10.0945325888662</v>
+        <v>10.0792095603455</v>
       </c>
       <c r="G11" t="n">
-        <v>2.57787931393809</v>
+        <v>2.56255628541747</v>
       </c>
     </row>
   </sheetData>
@@ -2555,10 +2549,10 @@
         <v>77</v>
       </c>
       <c r="F2" t="n">
-        <v>13.7340091720975</v>
+        <v>13.700939080183</v>
       </c>
       <c r="G2" t="n">
-        <v>-1.4209589227065</v>
+        <v>-1.45402901462101</v>
       </c>
     </row>
     <row r="3">
@@ -2578,10 +2572,10 @@
         <v>77</v>
       </c>
       <c r="F3" t="n">
-        <v>12.44607138188</v>
+        <v>12.3990622557958</v>
       </c>
       <c r="G3" t="n">
-        <v>-1.99210329917988</v>
+        <v>-2.03911242526408</v>
       </c>
     </row>
     <row r="4">
@@ -2601,10 +2595,10 @@
         <v>77</v>
       </c>
       <c r="F4" t="n">
-        <v>10.8243408610524</v>
+        <v>10.8159181858604</v>
       </c>
       <c r="G4" t="n">
-        <v>-2.05865317555052</v>
+        <v>-2.06707585074254</v>
       </c>
     </row>
     <row r="5">
@@ -2624,10 +2618,10 @@
         <v>77</v>
       </c>
       <c r="F5" t="n">
-        <v>8.8629077880445</v>
+        <v>8.85622762389297</v>
       </c>
       <c r="G5" t="n">
-        <v>-2.91387792624121</v>
+        <v>-2.92055809039274</v>
       </c>
     </row>
     <row r="6">
@@ -2661,19 +2655,19 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D7" t="n">
-        <v>71.1</v>
+        <v>70</v>
       </c>
       <c r="E7" t="s">
         <v>77</v>
       </c>
       <c r="F7" t="n">
-        <v>2.5706940874036</v>
+        <v>2.56089943785134</v>
       </c>
       <c r="G7" t="n">
-        <v>-3.47912797665334</v>
+        <v>-4.39672232052943</v>
       </c>
     </row>
     <row r="8">
@@ -2684,19 +2678,19 @@
         <v>87</v>
       </c>
       <c r="C8" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D8" t="n">
-        <v>70</v>
+        <v>71.1</v>
       </c>
       <c r="E8" t="s">
         <v>77</v>
       </c>
       <c r="F8" t="n">
-        <v>2.5705329153605</v>
+        <v>2.55918106206014</v>
       </c>
       <c r="G8" t="n">
-        <v>-4.38708884302027</v>
+        <v>-3.4906410019968</v>
       </c>
     </row>
     <row r="9">
@@ -2716,10 +2710,10 @@
         <v>77</v>
       </c>
       <c r="F9" t="n">
-        <v>2.53090052972337</v>
+        <v>2.52347417840376</v>
       </c>
       <c r="G9" t="n">
-        <v>-3.93027315136733</v>
+        <v>-3.93769950268694</v>
       </c>
     </row>
     <row r="10">
@@ -2739,10 +2733,10 @@
         <v>77</v>
       </c>
       <c r="F10" t="n">
-        <v>2.37154150197628</v>
+        <v>2.3598820058997</v>
       </c>
       <c r="G10" t="n">
-        <v>-2.13826241959234</v>
+        <v>-2.14992191566892</v>
       </c>
     </row>
     <row r="11">
@@ -2762,10 +2756,10 @@
         <v>77</v>
       </c>
       <c r="F11" t="n">
-        <v>0.900900900900901</v>
+        <v>0.907441016333938</v>
       </c>
       <c r="G11" t="n">
-        <v>-3.59161157830043</v>
+        <v>-3.58507146286739</v>
       </c>
     </row>
   </sheetData>
@@ -2822,10 +2816,10 @@
         <v>92</v>
       </c>
       <c r="F2" t="n">
-        <v>9.88446016916358</v>
+        <v>9.86945602075456</v>
       </c>
       <c r="G2" t="n">
-        <v>-4.5190026752417</v>
+        <v>-4.53400682365072</v>
       </c>
     </row>
     <row r="3">
@@ -2845,10 +2839,10 @@
         <v>92</v>
       </c>
       <c r="F3" t="n">
-        <v>8.52176549354488</v>
+        <v>8.48254702746203</v>
       </c>
       <c r="G3" t="n">
-        <v>-3.13005971138523</v>
+        <v>-3.16927817746809</v>
       </c>
     </row>
     <row r="4">
@@ -2868,10 +2862,10 @@
         <v>92</v>
       </c>
       <c r="F4" t="n">
-        <v>6.91669412575263</v>
+        <v>6.89686071865946</v>
       </c>
       <c r="G4" t="n">
-        <v>-3.48106732198398</v>
+        <v>-3.50090072907715</v>
       </c>
     </row>
     <row r="5">
@@ -2891,10 +2885,10 @@
         <v>92</v>
       </c>
       <c r="F5" t="n">
-        <v>6.89609318901093</v>
+        <v>6.88126957167879</v>
       </c>
       <c r="G5" t="n">
-        <v>-3.90820391633994</v>
+        <v>-3.92302753367208</v>
       </c>
     </row>
     <row r="6">
@@ -2914,10 +2908,10 @@
         <v>92</v>
       </c>
       <c r="F6" t="n">
-        <v>6.48688952404623</v>
+        <v>6.51197604790419</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.780808200083031</v>
+        <v>-0.755721676225069</v>
       </c>
     </row>
     <row r="7">
@@ -2937,10 +2931,10 @@
         <v>92</v>
       </c>
       <c r="F7" t="n">
-        <v>0.883977900552486</v>
+        <v>0.880572372041827</v>
       </c>
       <c r="G7" t="n">
-        <v>-3.37496588138959</v>
+        <v>-3.37837140990025</v>
       </c>
     </row>
     <row r="8">
@@ -2960,10 +2954,10 @@
         <v>92</v>
       </c>
       <c r="F8" t="n">
-        <v>0.844205679201842</v>
+        <v>0.843234955921809</v>
       </c>
       <c r="G8" t="n">
-        <v>-2.51301800997205</v>
+        <v>-2.51398873325209</v>
       </c>
     </row>
     <row r="9">
@@ -2983,10 +2977,10 @@
         <v>92</v>
       </c>
       <c r="F9" t="n">
-        <v>0.777934936350778</v>
+        <v>0.78125</v>
       </c>
       <c r="G9" t="n">
-        <v>-2.45947513559167</v>
+        <v>-2.45616007194245</v>
       </c>
     </row>
     <row r="10">
@@ -3006,10 +3000,10 @@
         <v>92</v>
       </c>
       <c r="F10" t="n">
-        <v>0.72463768115942</v>
+        <v>0.725689404934688</v>
       </c>
       <c r="G10" t="n">
-        <v>-3.89721105833638</v>
+        <v>-3.89615933456111</v>
       </c>
     </row>
     <row r="11">
@@ -3029,10 +3023,10 @@
         <v>92</v>
       </c>
       <c r="F11" t="n">
-        <v>0.685785536159601</v>
+        <v>0.683654443753884</v>
       </c>
       <c r="G11" t="n">
-        <v>-2.3406149789724</v>
+        <v>-2.34274607137812</v>
       </c>
     </row>
   </sheetData>
@@ -3089,10 +3083,10 @@
         <v>105</v>
       </c>
       <c r="F2" t="n">
-        <v>14.6294513955727</v>
+        <v>14.6364949446317</v>
       </c>
       <c r="G2" t="n">
-        <v>6.16904805076204</v>
+        <v>6.17609159982106</v>
       </c>
     </row>
     <row r="3">
@@ -3112,10 +3106,10 @@
         <v>105</v>
       </c>
       <c r="F3" t="n">
-        <v>14.2342342342342</v>
+        <v>14.3375680580762</v>
       </c>
       <c r="G3" t="n">
-        <v>5.91476668015769</v>
+        <v>6.01810050399969</v>
       </c>
     </row>
     <row r="4">
@@ -3135,10 +3129,10 @@
         <v>105</v>
       </c>
       <c r="F4" t="n">
-        <v>14.2225497420781</v>
+        <v>14.1599413059428</v>
       </c>
       <c r="G4" t="n">
-        <v>6.28383107912547</v>
+        <v>6.22122264299013</v>
       </c>
     </row>
     <row r="5">
@@ -3158,33 +3152,33 @@
         <v>105</v>
       </c>
       <c r="F5" t="n">
-        <v>10.9330045211673</v>
+        <v>10.9240246406571</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.636574766858606</v>
+        <v>-0.645554647368805</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>110</v>
+        <v>52</v>
       </c>
       <c r="B6" t="s">
-        <v>111</v>
+        <v>53</v>
       </c>
       <c r="C6" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>69.2</v>
+        <v>70.5</v>
       </c>
       <c r="E6" t="s">
         <v>105</v>
       </c>
       <c r="F6" t="n">
-        <v>9.28176795580111</v>
+        <v>9.28468208092486</v>
       </c>
       <c r="G6" t="n">
-        <v>0.297269379401232</v>
+        <v>1.49152840284765</v>
       </c>
     </row>
     <row r="7">
@@ -3204,10 +3198,10 @@
         <v>105</v>
       </c>
       <c r="F7" t="n">
-        <v>1.79114378904306</v>
+        <v>1.78842491651257</v>
       </c>
       <c r="G7" t="n">
-        <v>0.456289845392045</v>
+        <v>0.453570972861551</v>
       </c>
     </row>
     <row r="8">
@@ -3227,10 +3221,10 @@
         <v>105</v>
       </c>
       <c r="F8" t="n">
-        <v>1.72432973634442</v>
+        <v>1.7229879946643</v>
       </c>
       <c r="G8" t="n">
-        <v>0.71672126420788</v>
+        <v>0.715379522527754</v>
       </c>
     </row>
     <row r="9">
@@ -3250,10 +3244,10 @@
         <v>105</v>
       </c>
       <c r="F9" t="n">
-        <v>1.70001460493647</v>
+        <v>1.6957300817272</v>
       </c>
       <c r="G9" t="n">
-        <v>0.081255562542998</v>
+        <v>0.0769710393337271</v>
       </c>
     </row>
     <row r="10">
@@ -3273,10 +3267,10 @@
         <v>105</v>
       </c>
       <c r="F10" t="n">
-        <v>1.69997702733747</v>
+        <v>1.69394529014536</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.0686384959248949</v>
+        <v>-0.0746702331170044</v>
       </c>
     </row>
     <row r="11">
@@ -3296,10 +3290,10 @@
         <v>105</v>
       </c>
       <c r="F11" t="n">
-        <v>1.59497973591319</v>
+        <v>1.5889554571503</v>
       </c>
       <c r="G11" t="n">
-        <v>0.208816831104556</v>
+        <v>0.202792552341663</v>
       </c>
     </row>
   </sheetData>
